--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H2">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I2">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J2">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N2">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O2">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P2">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q2">
-        <v>97.31373028540338</v>
+        <v>106.2032925491405</v>
       </c>
       <c r="R2">
-        <v>97.31373028540338</v>
+        <v>424.813170196562</v>
       </c>
       <c r="S2">
-        <v>0.02124050639859064</v>
+        <v>0.01833613570800075</v>
       </c>
       <c r="T2">
-        <v>0.02124050639859064</v>
+        <v>0.01161644820876873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H3">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I3">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J3">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N3">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O3">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P3">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q3">
-        <v>41.74810210507432</v>
+        <v>48.55858285684467</v>
       </c>
       <c r="R3">
-        <v>41.74810210507432</v>
+        <v>291.351497141068</v>
       </c>
       <c r="S3">
-        <v>0.009112288957490052</v>
+        <v>0.008383702083806142</v>
       </c>
       <c r="T3">
-        <v>0.009112288957490052</v>
+        <v>0.007966960100414132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H4">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I4">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J4">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N4">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O4">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P4">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q4">
-        <v>53.23735279929408</v>
+        <v>60.32635772597</v>
       </c>
       <c r="R4">
-        <v>53.23735279929408</v>
+        <v>361.95814635582</v>
       </c>
       <c r="S4">
-        <v>0.01162002863790174</v>
+        <v>0.01041542362277484</v>
       </c>
       <c r="T4">
-        <v>0.01162002863790174</v>
+        <v>0.009897687632751137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H5">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I5">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J5">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N5">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O5">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P5">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q5">
-        <v>80.65376691054458</v>
+        <v>87.77299469352317</v>
       </c>
       <c r="R5">
-        <v>80.65376691054458</v>
+        <v>526.637968161139</v>
       </c>
       <c r="S5">
-        <v>0.01760416384316553</v>
+        <v>0.01515412096525529</v>
       </c>
       <c r="T5">
-        <v>0.01760416384316553</v>
+        <v>0.01440083102669442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H6">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I6">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J6">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N6">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O6">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P6">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q6">
-        <v>50.8294637183068</v>
+        <v>58.68707341061216</v>
       </c>
       <c r="R6">
-        <v>50.8294637183068</v>
+        <v>352.122440463673</v>
       </c>
       <c r="S6">
-        <v>0.01109446268454851</v>
+        <v>0.01013239906723679</v>
       </c>
       <c r="T6">
-        <v>0.01109446268454851</v>
+        <v>0.00962873182792065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H7">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I7">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J7">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N7">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O7">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P7">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q7">
-        <v>31.70458083586743</v>
+        <v>35.1487579765815</v>
       </c>
       <c r="R7">
-        <v>31.70458083586743</v>
+        <v>140.595031906326</v>
       </c>
       <c r="S7">
-        <v>0.006920106239210589</v>
+        <v>0.006068478488348788</v>
       </c>
       <c r="T7">
-        <v>0.006920106239210589</v>
+        <v>0.003844548665462352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H8">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J8">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N8">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O8">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P8">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q8">
-        <v>489.4458647810147</v>
+        <v>521.933067937344</v>
       </c>
       <c r="R8">
-        <v>489.4458647810147</v>
+        <v>3131.598407624064</v>
       </c>
       <c r="S8">
-        <v>0.1068305365764428</v>
+        <v>0.09011241868762353</v>
       </c>
       <c r="T8">
-        <v>0.1068305365764428</v>
+        <v>0.08563305769450455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H9">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J9">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N9">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O9">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P9">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q9">
-        <v>209.9748501866763</v>
+        <v>238.639777702144</v>
       </c>
       <c r="R9">
-        <v>209.9748501866763</v>
+        <v>2147.757999319296</v>
       </c>
       <c r="S9">
-        <v>0.04583086205669978</v>
+        <v>0.04120146602092382</v>
       </c>
       <c r="T9">
-        <v>0.04583086205669978</v>
+        <v>0.05873009905158365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H10">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J10">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N10">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O10">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P10">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q10">
-        <v>267.7607990473967</v>
+        <v>296.47217341056</v>
       </c>
       <c r="R10">
-        <v>267.7607990473967</v>
+        <v>2668.24956069504</v>
       </c>
       <c r="S10">
-        <v>0.05844370520766126</v>
+        <v>0.0511863038783533</v>
       </c>
       <c r="T10">
-        <v>0.05844370520766126</v>
+        <v>0.07296285756757995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H11">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J11">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N11">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O11">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P11">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q11">
-        <v>405.6534733341637</v>
+        <v>431.3578920469121</v>
       </c>
       <c r="R11">
-        <v>405.6534733341637</v>
+        <v>3882.221028422208</v>
       </c>
       <c r="S11">
-        <v>0.08854131036488717</v>
+        <v>0.07447449751738727</v>
       </c>
       <c r="T11">
-        <v>0.08854131036488717</v>
+        <v>0.1061587132310251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H12">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J12">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N12">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O12">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P12">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q12">
-        <v>255.6501611129124</v>
+        <v>288.415957153984</v>
       </c>
       <c r="R12">
-        <v>255.6501611129124</v>
+        <v>2595.743614385856</v>
       </c>
       <c r="S12">
-        <v>0.05580033636562837</v>
+        <v>0.04979538773038897</v>
       </c>
       <c r="T12">
-        <v>0.05580033636562837</v>
+        <v>0.07098019405990508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H13">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J13">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N13">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O13">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P13">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q13">
-        <v>159.4602934161522</v>
+        <v>172.737573803712</v>
       </c>
       <c r="R13">
-        <v>159.4602934161522</v>
+        <v>1036.425442822272</v>
       </c>
       <c r="S13">
-        <v>0.03480513358899529</v>
+        <v>0.02982336535065637</v>
       </c>
       <c r="T13">
-        <v>0.03480513358899529</v>
+        <v>0.02834088800312942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H14">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I14">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J14">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N14">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O14">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P14">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q14">
-        <v>77.66540551433626</v>
+        <v>80.15299634388199</v>
       </c>
       <c r="R14">
-        <v>77.66540551433626</v>
+        <v>480.917978063292</v>
       </c>
       <c r="S14">
-        <v>0.01695189916097417</v>
+        <v>0.01383851840265947</v>
       </c>
       <c r="T14">
-        <v>0.01695189916097417</v>
+        <v>0.0131506252083783</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H15">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I15">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J15">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N15">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O15">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P15">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q15">
-        <v>33.31886743972505</v>
+        <v>36.64778954369866</v>
       </c>
       <c r="R15">
-        <v>33.31886743972505</v>
+        <v>329.830105893288</v>
       </c>
       <c r="S15">
-        <v>0.007272453897016282</v>
+        <v>0.006327288225650664</v>
       </c>
       <c r="T15">
-        <v>0.007272453897016282</v>
+        <v>0.009019151503775798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H16">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I16">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J16">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N16">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O16">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P16">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q16">
-        <v>42.4883578251562</v>
+        <v>45.52908120068</v>
       </c>
       <c r="R16">
-        <v>42.4883578251562</v>
+        <v>409.7617308061199</v>
       </c>
       <c r="S16">
-        <v>0.009273863344915943</v>
+        <v>0.007860654707762264</v>
       </c>
       <c r="T16">
-        <v>0.009273863344915943</v>
+        <v>0.01120486900545545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H17">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I17">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J17">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N17">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O17">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P17">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q17">
-        <v>64.36920560947577</v>
+        <v>66.24341255245267</v>
       </c>
       <c r="R17">
-        <v>64.36920560947577</v>
+        <v>596.190712972074</v>
       </c>
       <c r="S17">
-        <v>0.01404975967533479</v>
+        <v>0.0114370107853373</v>
       </c>
       <c r="T17">
-        <v>0.01404975967533479</v>
+        <v>0.01630273971163489</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H18">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I18">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J18">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N18">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O18">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P18">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q18">
-        <v>40.56663844023534</v>
+        <v>44.29189215896866</v>
       </c>
       <c r="R18">
-        <v>40.56663844023534</v>
+        <v>398.627029430718</v>
       </c>
       <c r="S18">
-        <v>0.008854412844231257</v>
+        <v>0.007647052420857892</v>
       </c>
       <c r="T18">
-        <v>0.008854412844231257</v>
+        <v>0.01090039237685277</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H19">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I19">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J19">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N19">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O19">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P19">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q19">
-        <v>25.30320356704113</v>
+        <v>26.527221538686</v>
       </c>
       <c r="R19">
-        <v>25.30320356704113</v>
+        <v>159.163329232116</v>
       </c>
       <c r="S19">
-        <v>0.00552288824705751</v>
+        <v>0.004579959080501063</v>
       </c>
       <c r="T19">
-        <v>0.00552288824705751</v>
+        <v>0.004352295786650366</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H20">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I20">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J20">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.3565153878386</v>
+        <v>44.544241</v>
       </c>
       <c r="N20">
-        <v>44.3565153878386</v>
+        <v>89.088482</v>
       </c>
       <c r="O20">
-        <v>0.2737476509724089</v>
+        <v>0.2677188803968527</v>
       </c>
       <c r="P20">
-        <v>0.2737476509724089</v>
+        <v>0.2025351964154738</v>
       </c>
       <c r="Q20">
-        <v>589.754375988127</v>
+        <v>842.3441587859619</v>
       </c>
       <c r="R20">
-        <v>589.754375988127</v>
+        <v>3369.376635143848</v>
       </c>
       <c r="S20">
-        <v>0.1287247088364013</v>
+        <v>0.1454318075985689</v>
       </c>
       <c r="T20">
-        <v>0.1287247088364013</v>
+        <v>0.09213506530382219</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H21">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I21">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J21">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.0291783904059</v>
+        <v>20.36664933333333</v>
       </c>
       <c r="N21">
-        <v>19.0291783904059</v>
+        <v>61.099948</v>
       </c>
       <c r="O21">
-        <v>0.1174391820178184</v>
+        <v>0.1224072166131488</v>
       </c>
       <c r="P21">
-        <v>0.1174391820178184</v>
+        <v>0.1389056103700951</v>
       </c>
       <c r="Q21">
-        <v>253.0077290579393</v>
+        <v>385.1390822884453</v>
       </c>
       <c r="R21">
-        <v>253.0077290579393</v>
+        <v>2310.834493730672</v>
       </c>
       <c r="S21">
-        <v>0.0552235771066123</v>
+        <v>0.06649476028276821</v>
       </c>
       <c r="T21">
-        <v>0.0552235771066123</v>
+        <v>0.06318939971432154</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H22">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I22">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J22">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.2660871361529</v>
+        <v>25.30234</v>
       </c>
       <c r="N22">
-        <v>24.2660871361529</v>
+        <v>75.90701999999999</v>
       </c>
       <c r="O22">
-        <v>0.1497589315511228</v>
+        <v>0.1520716030658262</v>
       </c>
       <c r="P22">
-        <v>0.1497589315511228</v>
+        <v>0.1725682474308328</v>
       </c>
       <c r="Q22">
-        <v>322.6365045027654</v>
+        <v>478.4743846598799</v>
       </c>
       <c r="R22">
-        <v>322.6365045027654</v>
+        <v>2870.846307959279</v>
       </c>
       <c r="S22">
-        <v>0.07042133436064386</v>
+        <v>0.0826092208569358</v>
       </c>
       <c r="T22">
-        <v>0.07042133436064386</v>
+        <v>0.07850283322504627</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H23">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I23">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J23">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.7627470713794</v>
+        <v>36.81412633333333</v>
       </c>
       <c r="N23">
-        <v>36.7627470713794</v>
+        <v>110.442379</v>
       </c>
       <c r="O23">
-        <v>0.2268824673464346</v>
+        <v>0.2212595043374584</v>
       </c>
       <c r="P23">
-        <v>0.2268824673464346</v>
+        <v>0.2510814913577403</v>
       </c>
       <c r="Q23">
-        <v>488.7893192041651</v>
+        <v>696.1655105469594</v>
       </c>
       <c r="R23">
-        <v>488.7893192041651</v>
+        <v>4176.993063281756</v>
       </c>
       <c r="S23">
-        <v>0.1066872334630471</v>
+        <v>0.1201938750694785</v>
       </c>
       <c r="T23">
-        <v>0.1066872334630471</v>
+        <v>0.1142192073883859</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H24">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I24">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J24">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.1685486001233</v>
+        <v>24.61478433333333</v>
       </c>
       <c r="N24">
-        <v>23.1685486001233</v>
+        <v>73.844353</v>
       </c>
       <c r="O24">
-        <v>0.1429854374327779</v>
+        <v>0.1479392701500961</v>
       </c>
       <c r="P24">
-        <v>0.1429854374327779</v>
+        <v>0.1678789468994273</v>
       </c>
       <c r="Q24">
-        <v>308.0438759164242</v>
+        <v>465.4725131125153</v>
       </c>
       <c r="R24">
-        <v>308.0438759164242</v>
+        <v>2792.835078675092</v>
       </c>
       <c r="S24">
-        <v>0.06723622553836979</v>
+        <v>0.08036443093161251</v>
       </c>
       <c r="T24">
-        <v>0.06723622553836979</v>
+        <v>0.07636962863474873</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H25">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I25">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J25">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.4512467417156</v>
+        <v>14.742243</v>
       </c>
       <c r="N25">
-        <v>14.4512467417156</v>
+        <v>29.484486</v>
       </c>
       <c r="O25">
-        <v>0.08918633067943733</v>
+        <v>0.0886035254366179</v>
       </c>
       <c r="P25">
-        <v>0.08918633067943733</v>
+        <v>0.06703050752643071</v>
       </c>
       <c r="Q25">
-        <v>192.1405667215157</v>
+        <v>278.7799724425259</v>
       </c>
       <c r="R25">
-        <v>192.1405667215157</v>
+        <v>1115.119889770104</v>
       </c>
       <c r="S25">
-        <v>0.04193820260417395</v>
+        <v>0.04813172251711169</v>
       </c>
       <c r="T25">
-        <v>0.04193820260417395</v>
+        <v>0.03049277507118856</v>
       </c>
     </row>
   </sheetData>
